--- a/IMPAcTB_Lung_Option1/IMPACTB_CFU_Op1_AllDays_Lung.xlsx
+++ b/IMPAcTB_Lung_Option1/IMPACTB_CFU_Op1_AllDays_Lung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/rstor-henao_lab/Pablo/CFU_Pipeline/IMPAcTB_Lung_Option1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E8F94A-2336-4B4F-8D72-301AC87B4CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468A2E82-9D24-874D-843C-EB62B002CCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12740" yWindow="1580" windowWidth="30260" windowHeight="25600" activeTab="1" xr2:uid="{F769CEEC-9D1F-FB40-957D-4B49A21CC35B}"/>
+    <workbookView xWindow="12740" yWindow="1580" windowWidth="30260" windowHeight="25600" xr2:uid="{F769CEEC-9D1F-FB40-957D-4B49A21CC35B}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="2" r:id="rId1"/>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DC583E-E5B1-654C-A946-F3953F151004}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323B3519-A631-D944-B161-6177B5B4A5CE}">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection sqref="A1:Q89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
